--- a/draft/data.xlsx
+++ b/draft/data.xlsx
@@ -982,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I101"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,38 +1060,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1114,10 +1088,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1140,10 +1114,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1166,10 +1140,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1192,10 +1166,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1218,16 +1192,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>189</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>189</v>
@@ -1244,10 +1218,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1270,10 +1244,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1296,10 +1270,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1322,10 +1296,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1348,25 +1322,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>189</v>
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>189</v>
       </c>
-      <c r="F15">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>189</v>
       </c>
       <c r="G15" t="s">
         <v>189</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1374,10 +1348,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>189</v>
@@ -1400,10 +1374,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>189</v>
@@ -1418,7 +1392,7 @@
         <v>189</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>10</v>
@@ -1426,19 +1400,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>189</v>
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>189</v>
@@ -1452,10 +1426,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1478,36 +1452,36 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>189</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>189</v>
@@ -1521,8 +1495,8 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>189</v>
+      <c r="H21">
+        <v>1</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -1530,10 +1504,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>189</v>
@@ -1547,19 +1521,19 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>189</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>189</v>
@@ -1573,8 +1547,8 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>189</v>
+      <c r="H23">
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -1582,10 +1556,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>189</v>
@@ -1599,8 +1573,8 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>189</v>
       </c>
       <c r="I24" t="s">
         <v>10</v>
@@ -1608,10 +1582,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
         <v>189</v>
@@ -1625,8 +1599,8 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
-        <v>189</v>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>10</v>
@@ -1634,10 +1608,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>189</v>
@@ -1651,19 +1625,19 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" t="s">
+        <v>189</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
         <v>189</v>
@@ -1677,50 +1651,50 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
-        <v>189</v>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>58</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1743,10 +1717,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1769,10 +1743,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1795,10 +1769,10 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1821,10 +1795,10 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1847,10 +1821,10 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1873,10 +1847,10 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1899,10 +1873,10 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1925,10 +1899,10 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1951,10 +1925,10 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1972,15 +1946,15 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2003,10 +1977,10 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2024,15 +1998,15 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2055,10 +2029,10 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2081,10 +2055,10 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2107,10 +2081,10 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2133,10 +2107,10 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2159,10 +2133,10 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2185,10 +2159,10 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2211,10 +2185,10 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2237,10 +2211,10 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2263,10 +2237,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2289,10 +2263,10 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2315,10 +2289,10 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2341,10 +2315,10 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2367,10 +2341,10 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2393,10 +2367,10 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2419,10 +2393,10 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2445,10 +2419,10 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2471,10 +2445,10 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2497,10 +2471,10 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2523,10 +2497,10 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2549,10 +2523,10 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2575,10 +2549,10 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2601,10 +2575,10 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -2627,10 +2601,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2652,42 +2626,42 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>189</v>
-      </c>
-      <c r="E67" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D68" t="s">
         <v>189</v>
@@ -2710,10 +2684,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
         <v>189</v>
@@ -2735,42 +2709,42 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>189</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C71" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" t="s">
-        <v>189</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>189</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
         <v>189</v>
@@ -2793,10 +2767,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
         <v>189</v>
@@ -2819,10 +2793,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
         <v>189</v>
@@ -2845,45 +2819,45 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
         <v>189</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>189</v>
+      <c r="E75" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
       </c>
       <c r="G75" t="s">
         <v>189</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D76" t="s">
         <v>189</v>
       </c>
-      <c r="E76" t="s">
-        <v>189</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>189</v>
       </c>
       <c r="G76" t="s">
         <v>189</v>
@@ -2897,25 +2871,25 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>189</v>
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" t="s">
+        <v>189</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
       </c>
       <c r="G77" t="s">
         <v>189</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
         <v>41</v>
@@ -2923,96 +2897,96 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" t="s">
+        <v>147</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>189</v>
+      </c>
+      <c r="G78" t="s">
+        <v>189</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>150</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>149</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>189</v>
-      </c>
-      <c r="G78" t="s">
-        <v>189</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>189</v>
+      </c>
+      <c r="G79" t="s">
+        <v>189</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>152</v>
-      </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" t="s">
-        <v>189</v>
-      </c>
-      <c r="E80" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="s">
-        <v>189</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>189</v>
+        <v>151</v>
+      </c>
+      <c r="D81" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
       </c>
       <c r="G81" t="s">
         <v>189</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" t="s">
-        <v>189</v>
+        <v>153</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3032,13 +3006,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="D83" t="s">
+        <v>189</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3057,42 +3031,42 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" t="s">
+        <v>189</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" t="s">
-        <v>189</v>
-      </c>
-      <c r="G85" t="s">
-        <v>189</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3115,10 +3089,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3141,10 +3115,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -3167,10 +3141,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3193,10 +3167,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3219,10 +3193,10 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3245,10 +3219,10 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3271,10 +3245,10 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3297,10 +3271,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3323,10 +3297,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3349,10 +3323,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -3375,10 +3349,10 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -3401,10 +3375,10 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3427,10 +3401,10 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3453,10 +3427,10 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -3479,27 +3453,53 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>189</v>
+      </c>
+      <c r="G101" t="s">
+        <v>189</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>177</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>189</v>
-      </c>
-      <c r="G101" t="s">
-        <v>189</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>189</v>
+      </c>
+      <c r="G102" t="s">
+        <v>189</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
         <v>188</v>
       </c>
     </row>
